--- a/venv/Rockgame/config.xlsx
+++ b/venv/Rockgame/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>player_position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,19 @@
   <si>
     <t>敌人最大数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>10,13</t>
   </si>
 </sst>
 </file>
@@ -493,7 +502,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -531,24 +540,24 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -565,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -576,40 +585,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -626,7 +633,58 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -639,9 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -655,30 +711,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -686,22 +742,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -709,19 +765,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>

--- a/venv/Rockgame/config.xlsx
+++ b/venv/Rockgame/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,22 +89,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>enemy_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域数量，x*y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,13 +125,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>40,40</t>
+  </si>
+  <si>
+    <t>40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,11</t>
   </si>
   <si>
-    <t>10,12</t>
-  </si>
-  <si>
-    <t>10,13</t>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,16,45,90,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -186,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,7 +508,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -530,17 +536,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -557,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -574,7 +580,24 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -585,18 +608,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -613,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -627,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -644,13 +669,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -667,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -678,13 +703,81 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -711,30 +806,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -742,16 +837,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -765,19 +860,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -794,7 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/venv/Rockgame/config.xlsx
+++ b/venv/Rockgame/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wall_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,11 +139,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,16,45,90,1</t>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 144, 255</t>
+  </si>
+  <si>
+    <t>walls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 144, 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 12, 22, 42, 32, 43, 45, 44, 46, 47, 48, 38, 28, 18, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25, 35, 34, 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320, 540</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,7 +531,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -536,112 +559,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -652,13 +603,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -666,6 +620,100 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
@@ -675,10 +723,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -692,10 +743,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -709,10 +763,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -726,10 +783,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -743,10 +803,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -760,10 +823,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -777,7 +843,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +860,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,30 +875,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -837,22 +906,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -860,22 +929,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
